--- a/Task4/DATA2/data_summary_2.xlsx
+++ b/Task4/DATA2/data_summary_2.xlsx
@@ -458,7 +458,7 @@
         <v>45547</v>
       </c>
       <c r="B2" t="n">
-        <v>4048.848</v>
+        <v>3849.71</v>
       </c>
     </row>
     <row r="3">
